--- a/271025_Results_Med/output/m1/27102025_mod1_by_main_activity.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_main_activity.xlsx
@@ -702,7 +702,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>189 (82.2%)</t>
+          <t>189 (81.8%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="I8">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="9">
@@ -747,7 +747,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>27 (11.7%)</t>
+          <t>28 (12.1%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="I9">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="I10">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="I11">
-        <v>0.2871</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="12">
